--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mdk-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mdk-Itga4.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H2">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I2">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J2">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N2">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O2">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P2">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q2">
-        <v>0.1198017727484444</v>
+        <v>1.795033757717333</v>
       </c>
       <c r="R2">
-        <v>1.078215954736</v>
+        <v>16.155303819456</v>
       </c>
       <c r="S2">
-        <v>1.806703950035423E-05</v>
+        <v>0.0005916489424283698</v>
       </c>
       <c r="T2">
-        <v>1.806703950035423E-05</v>
+        <v>0.0005916489424283697</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H3">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I3">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J3">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.133268</v>
       </c>
       <c r="O3">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P3">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q3">
-        <v>0.0549792099431111</v>
+        <v>0.07215496747377777</v>
       </c>
       <c r="R3">
-        <v>0.494812889488</v>
+        <v>0.6493947072639999</v>
       </c>
       <c r="S3">
-        <v>8.291292649117783E-06</v>
+        <v>2.378251106046138E-05</v>
       </c>
       <c r="T3">
-        <v>8.291292649117783E-06</v>
+        <v>2.378251106046138E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H4">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I4">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J4">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N4">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O4">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P4">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q4">
-        <v>75.443356548056</v>
+        <v>91.8453454704231</v>
       </c>
       <c r="R4">
-        <v>678.9902089325041</v>
+        <v>826.6081092338078</v>
       </c>
       <c r="S4">
-        <v>0.01137744518735207</v>
+        <v>0.03027252344471013</v>
       </c>
       <c r="T4">
-        <v>0.01137744518735207</v>
+        <v>0.03027252344471012</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H5">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I5">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J5">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N5">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O5">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P5">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q5">
-        <v>2.014872861509778</v>
+        <v>1.306620081264</v>
       </c>
       <c r="R5">
-        <v>18.133855753588</v>
+        <v>11.759580731376</v>
       </c>
       <c r="S5">
-        <v>0.000303858505111825</v>
+        <v>0.0004306662122157431</v>
       </c>
       <c r="T5">
-        <v>0.0003038585051118251</v>
+        <v>0.0004306662122157431</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H6">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I6">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J6">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N6">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O6">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P6">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q6">
-        <v>78.46097869641687</v>
+        <v>126.8387607570489</v>
       </c>
       <c r="R6">
-        <v>706.148808267752</v>
+        <v>1141.54884681344</v>
       </c>
       <c r="S6">
-        <v>0.01183252608724875</v>
+        <v>0.04180646650136721</v>
       </c>
       <c r="T6">
-        <v>0.01183252608724875</v>
+        <v>0.04180646650136719</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H7">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I7">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J7">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N7">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O7">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P7">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q7">
-        <v>101.7631660791893</v>
+        <v>37.88384794906133</v>
       </c>
       <c r="R7">
-        <v>915.8684947127041</v>
+        <v>340.9546315415519</v>
       </c>
       <c r="S7">
-        <v>0.0153466772573922</v>
+        <v>0.01248663902715798</v>
       </c>
       <c r="T7">
-        <v>0.0153466772573922</v>
+        <v>0.01248663902715798</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>10.933347</v>
       </c>
       <c r="I8">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J8">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N8">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O8">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P8">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q8">
-        <v>0.3527778039346667</v>
+        <v>4.027568056676</v>
       </c>
       <c r="R8">
-        <v>3.175000235412</v>
+        <v>36.24811251008401</v>
       </c>
       <c r="S8">
-        <v>5.320163777475156E-05</v>
+        <v>0.001327499480745632</v>
       </c>
       <c r="T8">
-        <v>5.320163777475155E-05</v>
+        <v>0.001327499480745632</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>10.933347</v>
       </c>
       <c r="I9">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J9">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.133268</v>
       </c>
       <c r="O9">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P9">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q9">
         <v>0.1618961431106667</v>
@@ -1013,10 +1013,10 @@
         <v>1.457065287996</v>
       </c>
       <c r="S9">
-        <v>2.441519808456587E-05</v>
+        <v>5.336149331055725E-05</v>
       </c>
       <c r="T9">
-        <v>2.441519808456587E-05</v>
+        <v>5.336149331055725E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>10.933347</v>
       </c>
       <c r="I10">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J10">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N10">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O10">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P10">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q10">
-        <v>222.1564926286021</v>
+        <v>206.0760016243097</v>
       </c>
       <c r="R10">
-        <v>1999.408433657419</v>
+        <v>1854.684014618787</v>
       </c>
       <c r="S10">
-        <v>0.03350292767377454</v>
+        <v>0.06792331781878916</v>
       </c>
       <c r="T10">
-        <v>0.03350292767377453</v>
+        <v>0.06792331781878916</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>10.933347</v>
       </c>
       <c r="I11">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J11">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N11">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O11">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P11">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q11">
-        <v>5.933154468285667</v>
+        <v>2.931700464621</v>
       </c>
       <c r="R11">
-        <v>53.39839021457101</v>
+        <v>26.385304181589</v>
       </c>
       <c r="S11">
-        <v>0.0008947658593108107</v>
+        <v>0.0009662979718083469</v>
       </c>
       <c r="T11">
-        <v>0.0008947658593108107</v>
+        <v>0.0009662979718083469</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>10.933347</v>
       </c>
       <c r="I12">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J12">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N12">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O12">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P12">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q12">
-        <v>231.0424221952593</v>
+        <v>284.5917181095734</v>
       </c>
       <c r="R12">
-        <v>2079.381799757334</v>
+        <v>2561.32546298616</v>
       </c>
       <c r="S12">
-        <v>0.03484299499327292</v>
+        <v>0.09380235236217581</v>
       </c>
       <c r="T12">
-        <v>0.03484299499327292</v>
+        <v>0.09380235236217579</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>10.933347</v>
       </c>
       <c r="I13">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J13">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N13">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O13">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P13">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q13">
-        <v>299.6598917299521</v>
+        <v>85.001062073417</v>
       </c>
       <c r="R13">
-        <v>2696.939025569568</v>
+        <v>765.0095586607531</v>
       </c>
       <c r="S13">
-        <v>0.04519104330722196</v>
+        <v>0.02801662546167265</v>
       </c>
       <c r="T13">
-        <v>0.04519104330722195</v>
+        <v>0.02801662546167265</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H14">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I14">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J14">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N14">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O14">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P14">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q14">
-        <v>0.1617985518724445</v>
+        <v>3.029778488426667</v>
       </c>
       <c r="R14">
-        <v>1.456186966852</v>
+        <v>27.26800639584</v>
       </c>
       <c r="S14">
-        <v>2.440048056649081E-05</v>
+        <v>0.0009986248062261456</v>
       </c>
       <c r="T14">
-        <v>2.440048056649081E-05</v>
+        <v>0.0009986248062261456</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H15">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I15">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J15">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.133268</v>
       </c>
       <c r="O15">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P15">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q15">
-        <v>0.07425229483511112</v>
+        <v>0.1217879983288889</v>
       </c>
       <c r="R15">
-        <v>0.6682706535160001</v>
+        <v>1.09609198496</v>
       </c>
       <c r="S15">
-        <v>1.11978238134654E-05</v>
+        <v>4.014171884064472E-05</v>
       </c>
       <c r="T15">
-        <v>1.11978238134654E-05</v>
+        <v>4.014171884064472E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H16">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I16">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J16">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N16">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O16">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P16">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q16">
-        <v>101.890193757842</v>
+        <v>155.0227402532355</v>
       </c>
       <c r="R16">
-        <v>917.0117438205782</v>
+        <v>1395.20466227912</v>
       </c>
       <c r="S16">
-        <v>0.01536583401972723</v>
+        <v>0.05109599745901704</v>
       </c>
       <c r="T16">
-        <v>0.01536583401972723</v>
+        <v>0.05109599745901704</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H17">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I17">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J17">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N17">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O17">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P17">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q17">
-        <v>2.721191045176778</v>
+        <v>2.20540109496</v>
       </c>
       <c r="R17">
-        <v>24.490719406591</v>
+        <v>19.84860985464</v>
       </c>
       <c r="S17">
-        <v>0.0004103767830251697</v>
+        <v>0.0007269073463680926</v>
       </c>
       <c r="T17">
-        <v>0.0004103767830251697</v>
+        <v>0.0007269073463680926</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H18">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I18">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J18">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N18">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O18">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P18">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q18">
-        <v>105.9656500929349</v>
+        <v>214.0869759068445</v>
       </c>
       <c r="R18">
-        <v>953.6908508364141</v>
+        <v>1926.7827831616</v>
       </c>
       <c r="S18">
-        <v>0.01598044454592287</v>
+        <v>0.07056376089775934</v>
       </c>
       <c r="T18">
-        <v>0.01598044454592287</v>
+        <v>0.07056376089775934</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H19">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I19">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J19">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N19">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O19">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P19">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q19">
-        <v>137.4364713295254</v>
+        <v>63.94290195458666</v>
       </c>
       <c r="R19">
-        <v>1236.928241965728</v>
+        <v>575.4861175912799</v>
       </c>
       <c r="S19">
-        <v>0.02072648926083673</v>
+        <v>0.02107578765835643</v>
       </c>
       <c r="T19">
-        <v>0.02072648926083673</v>
+        <v>0.02107578765835643</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H20">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I20">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J20">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N20">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O20">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P20">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q20">
-        <v>1.774185751976444</v>
+        <v>2.59070903948</v>
       </c>
       <c r="R20">
-        <v>15.967671767788</v>
+        <v>23.31638135532</v>
       </c>
       <c r="S20">
-        <v>0.0002675610162232787</v>
+        <v>0.0008539060932743364</v>
       </c>
       <c r="T20">
-        <v>0.0002675610162232787</v>
+        <v>0.0008539060932743364</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H21">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I21">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J21">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.133268</v>
       </c>
       <c r="O21">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P21">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q21">
-        <v>0.8142060730671111</v>
+        <v>0.1041387247866667</v>
       </c>
       <c r="R21">
-        <v>7.327854657604</v>
+        <v>0.93724852308</v>
       </c>
       <c r="S21">
-        <v>0.0001227886111036099</v>
+        <v>3.432446109772425E-05</v>
       </c>
       <c r="T21">
-        <v>0.0001227886111036099</v>
+        <v>3.432446109772425E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H22">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I22">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J22">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N22">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O22">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P22">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q22">
-        <v>1117.266674758598</v>
+        <v>132.5571542715566</v>
       </c>
       <c r="R22">
-        <v>10055.40007282738</v>
+        <v>1193.01438844401</v>
       </c>
       <c r="S22">
-        <v>0.1684925079337369</v>
+        <v>0.04369126753126545</v>
       </c>
       <c r="T22">
-        <v>0.1684925079337369</v>
+        <v>0.04369126753126545</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H23">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I23">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J23">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N23">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O23">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P23">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q23">
-        <v>29.83894679455878</v>
+        <v>1.88579877183</v>
       </c>
       <c r="R23">
-        <v>268.550521151029</v>
+        <v>16.97218894646999</v>
       </c>
       <c r="S23">
-        <v>0.004499945351545406</v>
+        <v>0.0006215653851573044</v>
       </c>
       <c r="T23">
-        <v>0.004499945351545406</v>
+        <v>0.0006215653851573044</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H24">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I24">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J24">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N24">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O24">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P24">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q24">
-        <v>1161.955681420563</v>
+        <v>183.0619188285333</v>
       </c>
       <c r="R24">
-        <v>10457.60113278506</v>
+        <v>1647.5572694568</v>
       </c>
       <c r="S24">
-        <v>0.1752319578606479</v>
+        <v>0.06033780156398892</v>
       </c>
       <c r="T24">
-        <v>0.1752319578606478</v>
+        <v>0.06033780156398891</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H25">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I25">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J25">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N25">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O25">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P25">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q25">
-        <v>1507.045807350582</v>
+        <v>54.67642427890999</v>
       </c>
       <c r="R25">
-        <v>13563.41226615523</v>
+        <v>492.0878185101899</v>
       </c>
       <c r="S25">
-        <v>0.2272742339749703</v>
+        <v>0.01802152659319292</v>
       </c>
       <c r="T25">
-        <v>0.2272742339749703</v>
+        <v>0.01802152659319292</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H26">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I26">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J26">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N26">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O26">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P26">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q26">
-        <v>0.4489362119537778</v>
+        <v>4.732732209339999</v>
       </c>
       <c r="R26">
-        <v>4.040425907584</v>
+        <v>42.59458988405999</v>
       </c>
       <c r="S26">
-        <v>6.770307390642196E-05</v>
+        <v>0.001559923870185861</v>
       </c>
       <c r="T26">
-        <v>6.770307390642194E-05</v>
+        <v>0.001559923870185861</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H27">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I27">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J27">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.133268</v>
       </c>
       <c r="O27">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P27">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q27">
-        <v>0.2060249834524444</v>
+        <v>0.1902416247933333</v>
       </c>
       <c r="R27">
-        <v>1.854224851072</v>
+        <v>1.71217462314</v>
       </c>
       <c r="S27">
-        <v>3.107017057177455E-05</v>
+        <v>6.270425591213576E-05</v>
       </c>
       <c r="T27">
-        <v>3.107017057177455E-05</v>
+        <v>6.270425591213576E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H28">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I28">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J28">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N28">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O28">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P28">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q28">
-        <v>282.710797417664</v>
+        <v>242.1566853085783</v>
       </c>
       <c r="R28">
-        <v>2544.397176758976</v>
+        <v>2179.410167777205</v>
       </c>
       <c r="S28">
-        <v>0.04263498800511614</v>
+        <v>0.07981562806204399</v>
       </c>
       <c r="T28">
-        <v>0.04263498800511614</v>
+        <v>0.07981562806204399</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H29">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I29">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J29">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N29">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O29">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P29">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q29">
-        <v>7.550384015719111</v>
+        <v>3.444995347514999</v>
       </c>
       <c r="R29">
-        <v>67.953456141472</v>
+        <v>31.00495812763499</v>
       </c>
       <c r="S29">
-        <v>0.001138656658622872</v>
+        <v>0.001135481628278584</v>
       </c>
       <c r="T29">
-        <v>0.001138656658622872</v>
+        <v>0.001135481628278584</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H30">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I30">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J30">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N30">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O30">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P30">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q30">
-        <v>294.0188091883875</v>
+        <v>334.4192753182666</v>
       </c>
       <c r="R30">
-        <v>2646.169282695488</v>
+        <v>3009.773477864399</v>
       </c>
       <c r="S30">
-        <v>0.04434032416705357</v>
+        <v>0.1102256766587625</v>
       </c>
       <c r="T30">
-        <v>0.04434032416705357</v>
+        <v>0.1102256766587625</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H31">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I31">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J31">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N31">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O31">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P31">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q31">
-        <v>381.3396851141974</v>
+        <v>99.88341814265497</v>
       </c>
       <c r="R31">
-        <v>3432.057166027776</v>
+        <v>898.9507632838948</v>
       </c>
       <c r="S31">
-        <v>0.0575089916947853</v>
+        <v>0.03292189824072288</v>
       </c>
       <c r="T31">
-        <v>0.05750899169478529</v>
+        <v>0.03292189824072288</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H32">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I32">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J32">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N32">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O32">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P32">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q32">
-        <v>0.2232772242471111</v>
+        <v>4.791326620569333</v>
       </c>
       <c r="R32">
-        <v>2.009495018224</v>
+        <v>43.121939585124</v>
       </c>
       <c r="S32">
-        <v>3.367194272218634E-05</v>
+        <v>0.001579236777972138</v>
       </c>
       <c r="T32">
-        <v>3.367194272218633E-05</v>
+        <v>0.001579236777972138</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H33">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I33">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J33">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.133268</v>
       </c>
       <c r="O33">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P33">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q33">
-        <v>0.1024659744657778</v>
+        <v>0.1925969441951111</v>
       </c>
       <c r="R33">
-        <v>0.9221937701919999</v>
+        <v>1.733372497756</v>
       </c>
       <c r="S33">
-        <v>1.545266623059659E-05</v>
+        <v>6.348057681816426E-05</v>
       </c>
       <c r="T33">
-        <v>1.545266623059659E-05</v>
+        <v>6.348057681816426E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H34">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I34">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J34">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N34">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O34">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P34">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q34">
-        <v>140.605458930104</v>
+        <v>245.1547481131674</v>
       </c>
       <c r="R34">
-        <v>1265.449130370936</v>
+        <v>2206.392733018507</v>
       </c>
       <c r="S34">
-        <v>0.0212043972486927</v>
+        <v>0.08080379927611893</v>
       </c>
       <c r="T34">
-        <v>0.0212043972486927</v>
+        <v>0.08080379927611891</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H35">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I35">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J35">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N35">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O35">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P35">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q35">
-        <v>3.755163295232444</v>
+        <v>3.487646709381</v>
       </c>
       <c r="R35">
-        <v>33.796469657092</v>
+        <v>31.38882038442899</v>
       </c>
       <c r="S35">
-        <v>0.0005663078436051426</v>
+        <v>0.001149539655339445</v>
       </c>
       <c r="T35">
-        <v>0.0005663078436051426</v>
+        <v>0.001149539655339445</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H36">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I36">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J36">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N36">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O36">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P36">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q36">
-        <v>146.2294683387742</v>
+        <v>338.5596111061956</v>
       </c>
       <c r="R36">
-        <v>1316.065215048968</v>
+        <v>3047.03649995576</v>
       </c>
       <c r="S36">
-        <v>0.02205254162757567</v>
+        <v>0.1115903447490951</v>
       </c>
       <c r="T36">
-        <v>0.02205254162757567</v>
+        <v>0.111590344749095</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H37">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I37">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J37">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N37">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O37">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P37">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q37">
-        <v>189.6582724236374</v>
+        <v>101.1200421092703</v>
       </c>
       <c r="R37">
-        <v>1706.924451812736</v>
+        <v>910.080378983433</v>
       </c>
       <c r="S37">
-        <v>0.02860194320030453</v>
+        <v>0.03332949350676398</v>
       </c>
       <c r="T37">
-        <v>0.02860194320030453</v>
+        <v>0.03332949350676398</v>
       </c>
     </row>
   </sheetData>
